--- a/test_file.xlsx
+++ b/test_file.xlsx
@@ -668,7 +668,7 @@
     <row r="7" ht="13.5" customHeight="1">
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>от  01 мая 0 г. № 25.17/0    за май 0 г.</t>
+          <t>от  01 мая 2023 г. № 25.17/0    за май 2023 г.</t>
         </is>
       </c>
     </row>
